--- a/内田/仕様書.xlsx
+++ b/内田/仕様書.xlsx
@@ -9,15 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9735" windowHeight="4740" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="カエルのモデル " sheetId="2" r:id="rId1"/>
     <sheet name="カエルのアニメーション" sheetId="1" r:id="rId2"/>
     <sheet name="油" sheetId="3" r:id="rId3"/>
-    <sheet name="オブジェクト等" sheetId="4" r:id="rId4"/>
-    <sheet name="ギミック(1)" sheetId="5" r:id="rId5"/>
-    <sheet name="エネミー" sheetId="6" r:id="rId6"/>
+    <sheet name="油のメーター" sheetId="7" r:id="rId4"/>
+    <sheet name="油のプログラムとアニメーション" sheetId="8" r:id="rId5"/>
+    <sheet name="オブジェクト等" sheetId="4" r:id="rId6"/>
+    <sheet name="ギミック(1)" sheetId="5" r:id="rId7"/>
+    <sheet name="エネミー" sheetId="6" r:id="rId8"/>
+    <sheet name="エネミー油状態時" sheetId="9" r:id="rId9"/>
+    <sheet name="アイテム" sheetId="10" r:id="rId10"/>
+    <sheet name="ルール" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -79,6 +84,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFAE660E"/>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -107,7 +119,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -191,7 +209,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>・リアルで気持ち悪い感じでなく少しポップ</a:t>
+            <a:t>　・リアルで気持ち悪い感じでなく少しポップ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
@@ -205,8 +223,234 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>・ポケモンのニョロトノをリアルのカエルに近づけた感じのイメージ</a:t>
-          </a:r>
+            <a:t>　・ポケモンのニョロトノをリアルのカエルに近づけた感じのイメージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・サイズ　１</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>×</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>×</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>１でいい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>イメージ　　　　　　　　　　◎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(AD)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　・体</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　緑、背中にちょっと茶色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>油の色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　・手足眼球　黄色っぽいオレンジっぽい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　・裏　白</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>これよりもうちょい濃い感じで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>....)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -227,7 +471,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2"/>
+        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -277,10 +527,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533569</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4ABDBC3-4DBC-420B-B07B-31F9FC060C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="1752600"/>
+          <a:ext cx="1950889" cy="1950889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -297,7 +597,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -358,21 +664,17 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>◎アニメーション</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>(AT)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>　　　　　　　　　　　　　　◎</a:t>
+            <a:t>◎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>アイテム所持・使用</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -382,21 +684,11 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>AT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>での処理</a:t>
+            <a:t>(AT)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
@@ -409,183 +701,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>　・止まる　　　　　　　　　　　　　　　　　　　・移動ボタンを押してる間だけ歩く　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>　・歩く　　　　　　　　　　　　　　　　　　　　　アニメーションを再生し離すと止まる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>　・口の開閉　　　　　　　　　　　　　　　　　　　状態に戻す</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>　　　　　　　　　　　　　　　　　　　　　　　　・別で用意した舌を口の中に置いとき　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>◎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>舌</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(AD)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　　　　　　　　　　　　　　　　　　　　口の開いたアニメーションと共に舌を伸ばし</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>　・口を開けたら舌が出てきて物を拾うために　　　　閉じるときに口の中に戻す</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>　　モデルが必要サイズは直径</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>0.2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>の高さ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>0.5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>の</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>　　円柱のイメージ</a:t>
+            <a:t>・アイテムを舌でとると口の中に入った状態になる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
@@ -611,7 +727,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="1 つの角を切り取った四角形 1"/>
+        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -654,7 +776,7 @@
               <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>カエルのモデル</a:t>
+            <a:t>アイテム</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -664,30 +786,36 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="28575"/>
-          <a:ext cx="12306300" cy="4248150"/>
+          <a:off x="28575" y="28574"/>
+          <a:ext cx="12306300" cy="4962526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,99 +870,6 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>◎油</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・黄色っぽい茶色</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・地面についたら割れて液体になるイメージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>◎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>モデル</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>(AD)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・球体のモデルと割れたときに液体になるアニメーション</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
             <a:t>◎</a:t>
           </a:r>
           <a:r>
@@ -845,7 +880,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>モデルの処理</a:t>
+            <a:t>リザルト</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -865,7 +900,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>・カエルから油を出させて地面に落とす</a:t>
+            <a:t>　・油の使用回数、経過時間、ヒント、ダウン回数この四つが基準となる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
@@ -879,8 +914,351 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>・油の座標移動、地面についた瞬間のアニメーション</a:t>
-          </a:r>
+            <a:t>　・油の使用回数と経過時間は、各ステージ最低値を設定してそれを超えている分減点する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・敵にやれた回数はカウントやられた分だけ減点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・プレイ中敵にやられると初期位置に戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・ヒントは見た回数で減点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・ヒントは見ている間も時間は進む</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎点数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・最高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>点最低は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>点それ以下は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎減点数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・油使用数　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>回　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>-10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・時間　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>秒　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>-2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・ダウン　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>回　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>-10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・ヒント　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>回　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>-20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>あくまで参考で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
@@ -905,7 +1283,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2"/>
+        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -948,7 +1332,7 @@
               <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>油</a:t>
+            <a:t>ルール</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -958,7 +1342,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -975,7 +1359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1046,7 +1436,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>ステージの地面</a:t>
+            <a:t>アニメーション</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -1058,61 +1448,6 @@
             </a:rPr>
             <a:t>(AD)</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>50×50</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・カエルよりも薄い緑</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・どうぶつの森みたいな感じ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>◎</a:t>
-          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
@@ -1121,27 +1456,205 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>木のモデル</a:t>
+            <a:t>　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>AT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>での処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・止まる　　　　　　　　　　　　　　　　　　　・移動ボタンを押してる間だけ歩く　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・歩く　　　　　　　　　　　　　　　　　　　　　アニメーションを再生し離すと止まる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・口の開閉　　　　　　　　　　　　　　　　　　　状態に戻す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　　・別で用意した舌を口の中に置いとき　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>舌</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>(AD)</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・背景に置くもので、これもどう森みたいなイメージ</a:t>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カエルとは別で作る　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　口の開いたアニメーションと共に舌を伸ばし</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
@@ -1155,22 +1668,654 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>・</a:t>
+            <a:t>　・口を開けたら舌が出てきて物を拾うために　　　　閉じるときに口の中に戻す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　モデルが必要　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>2×4×2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>サイズ</a:t>
-          </a:r>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>口開けてる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・サイズ　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>0.5×0.2×0.2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　口の中に用意しとく　　　　　　　　　　　　　口開けると出てきて　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>見えない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　閉じるときに戻す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="1 つの角を切り取った四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="76201"/>
+          <a:ext cx="3619500" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カエルのアニメーション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441961</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CA5D87-04DF-47FE-BE84-4363E15E7048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4465321" y="2750821"/>
+          <a:ext cx="1295399" cy="1295399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 論理積ゲート 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A735E8-D1D5-42FB-ABFA-CDE384660AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5097780" y="3215640"/>
+          <a:ext cx="434340" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDelay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0066"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF5050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矢印: 右 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D284933-B3A2-434B-AED1-D24AFC5E24AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7482840" y="3261360"/>
+          <a:ext cx="579120" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA3AACA-2333-47DB-994E-4A055ACDE65B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8138161" y="2788921"/>
+          <a:ext cx="1295399" cy="1295399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 論理積ゲート 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79B3AA8-DB2B-44C2-87F7-DB071097581A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9121140" y="3230880"/>
+          <a:ext cx="434340" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDelay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0066"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>668655</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="28575"/>
+          <a:ext cx="12039600" cy="4086225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　当たり判定の枠</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎油　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　アニメーションは</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・黄色っぽい茶色　　　　　　　　　　　　　　　　　　　　　　　油　　　　　　　　　　　　　　　　　　　　　　　　潰れるだけ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・地面についたら割れて液体になるイメージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・見た目はこんな感じ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>色は違うけど</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
@@ -1193,7 +2338,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>柵</a:t>
+            <a:t>モデル</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -1213,7 +2358,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>・壁となるもの</a:t>
+            <a:t>・球体のモデルと割れたときに液体になるアニメーション</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
@@ -1227,21 +2372,68 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>・一個</a:t>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>6×1×0.5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>サイズ</a:t>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>油を投げる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>モデルの処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(AT)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・カエルから油を出させて地面に落とす</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
@@ -1255,26 +2447,29 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>・全部で</a:t>
+            <a:t>・油の座標移動、地面についた瞬間にアニメーション再生　　　　　　　　　　　　　　　　　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>20</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>コの予定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>地面につくと液体になる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1295,7 +2490,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2"/>
+        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1338,17 +2539,1539 @@
               <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>オブジェクト</a:t>
+            <a:t>油</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>188595</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FE2FC6-81F9-46EB-B610-409153A7A6E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="2809875"/>
+          <a:ext cx="1295399" cy="1295399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A39899-E704-44F9-B2E7-7F101835EBA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6393180" y="777240"/>
+          <a:ext cx="777240" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 結合子 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F8F8892-9D60-45D1-9320-64893C796B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6393180" y="792480"/>
+          <a:ext cx="762000" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="AE660E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15A01B2-A204-4D62-9B0D-F7982F37B6B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3147060" y="1524000"/>
+          <a:ext cx="1082040" cy="1082040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矢印: 右 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119672FD-0B89-4C1E-9909-F6C330CDC338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7711440" y="990600"/>
+          <a:ext cx="868680" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF79DC7A-E91B-40C6-A226-E436AA932FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5989320" y="1485900"/>
+          <a:ext cx="1569720" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144779</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 結合子 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027AFB4C-F319-45EA-988E-E2677350C60F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9037320" y="1470660"/>
+          <a:ext cx="762000" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="AE660E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A86BA35-8F1B-4DA0-97A9-717D92443141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8641080" y="1516380"/>
+          <a:ext cx="1569720" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245B2DCA-428D-455D-AB77-E269E89E8139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6065520" y="624840"/>
+          <a:ext cx="320040" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC01D572-0FD0-4F93-944B-0B45DC566829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5935980" y="1158240"/>
+          <a:ext cx="762000" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637DAA3D-32F2-43A8-8B96-451396B5EA01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="830580"/>
+          <a:ext cx="777240" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F85CBB-44DB-47EC-908C-44B47CFD9876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5585460" y="3954780"/>
+          <a:ext cx="6225540" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="フローチャート: 結合子 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2823C9-D68D-45F5-B631-33E17BF958FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951220" y="2552700"/>
+          <a:ext cx="563880" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="AE660E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="フローチャート: 結合子 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66362991-F827-4558-B4C2-FBE67A3E79C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8732520" y="1996440"/>
+          <a:ext cx="563880" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="AE660E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="フローチャート: 結合子 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C390A02-A97A-4387-A28E-5F70DD614905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7749540" y="1607820"/>
+          <a:ext cx="563880" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="AE660E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="フローチャート: 結合子 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40627C36-6A02-441D-8F6E-0F70B97E5389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6758940" y="1988820"/>
+          <a:ext cx="563880" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="AE660E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="フローチャート: 結合子 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566577C5-67A3-4295-9A61-09CD14ABC002}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9585960" y="2590800"/>
+          <a:ext cx="563880" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="AE660E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="フローチャート: 結合子 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC435E2C-C8BF-4E31-BC83-A624094D69C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10347960" y="3230880"/>
+          <a:ext cx="563880" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="AE660E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="フローチャート: 結合子 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06BF159-4C94-447A-9720-C23E5E840C6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10637520" y="3893820"/>
+          <a:ext cx="762000" cy="76199"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="AE660E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CDE65B-8B9B-48A0-8CB1-8420CF84ACC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6507480" y="2468880"/>
+          <a:ext cx="281940" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C98CE4A-2739-4BD0-88A1-12FD90CAD960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7399020" y="1965960"/>
+          <a:ext cx="281940" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7288F943-B610-4912-BD09-155B384A698D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="1965960"/>
+          <a:ext cx="297180" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B1520B-355A-4015-84B3-10E3D7552749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9311640" y="2476500"/>
+          <a:ext cx="297180" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2FB49E-52E8-4C19-B380-45F404AE8492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10126980" y="3055620"/>
+          <a:ext cx="281940" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2402BF39-F1DF-49FC-A4D4-AB2839DEC7BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="3619500"/>
+          <a:ext cx="106680" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1359,19 +4082,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>668655</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28575" y="28575"/>
-          <a:ext cx="12306300" cy="4248150"/>
+          <a:ext cx="12298680" cy="4257675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1401,23 +4130,31 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1427,95 +4164,6 @@
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
             <a:t>◎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>草</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>2×2×2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・え、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>AD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>だよね？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>◎炎</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
@@ -1525,7 +4173,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>マッチを使ったらアニメーション再生</a:t>
+            <a:t>油の残量メーター</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -1537,59 +4185,68 @@
             </a:rPr>
             <a:t>(AT)</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>時間経過で消す</a:t>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・使うとどんどん減っていくもの　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・全部使うと全回復するまで使えなくなる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・リキャストは５～</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>(AT)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・モデル</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>AD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>だよね？</a:t>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>秒</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
@@ -1598,53 +4255,19 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>◎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>マッチ</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>AT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>で作るらしい？</a:t>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
@@ -1670,7 +4293,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2"/>
+        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1713,7 +4342,7 @@
               <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ギミック用</a:t>
+            <a:t>メーター</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1723,7 +4352,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1740,7 +4369,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1806,12 +4441,377 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>油が地面にある時</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(AT)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・油の上は滑りやすく加速する　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・油を出した時と地面についた時の当たり判定はそのまま　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・重なり判定　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>注意点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>このとき地面もすり抜ける可能性がある</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・地面と接触時のアニメーション＋重力を切れば</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・できなかったら保留</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="76201"/>
+          <a:ext cx="3619500" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>油のアニメーション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>668655</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="28575"/>
+          <a:ext cx="12039600" cy="4566285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>蛇</a:t>
+            <a:t>ステージの地面</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -1831,15 +4831,85 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>・</a:t>
+            <a:t>　・</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>1×1×1</a:t>
-          </a:r>
+            <a:t>50×50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>の地面に張り付ける</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>2D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>絵　　　　　　　　　　　　　　こんなイメージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>参考</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・カエルよりも薄い緑</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・どうぶつの森みたいな感じ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1858,7 +4928,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>アニメーション・移動</a:t>
+            <a:t>木のモデル</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -1878,43 +4948,40 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>・</a:t>
+            <a:t>　・背景に置くもので、これもどう森みたいなイメージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>周</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>秒くらい、カエルのスピードの</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>1/2</a:t>
-          </a:r>
+            <a:t>2×4×2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>サイズ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1924,33 +4991,6 @@
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
             <a:t>◎</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>油がかかった状態</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
@@ -1960,7 +5000,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>油がかかって状態のモデルを別に用意する</a:t>
+            <a:t>柵</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -1972,25 +5012,78 @@
             </a:rPr>
             <a:t>(AD)</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>モデルの切り替えかアニメーションさせる。簡単な方に</a:t>
+            <a:t>　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>まとめたものを１つ作って欲しい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・壁となるもの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・柵を５～６個並べたもので１つ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -2000,11 +5093,18 @@
               <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>(AT)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>AT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>でこれを４辺分置く</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
               <a:srgbClr val="00B050"/>
@@ -2032,7 +5132,2971 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2"/>
+        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="76201"/>
+          <a:ext cx="2752725" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>オブジェクト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>510541</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A11FC0-DDC5-479F-9754-C761B72B049B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3192781" y="723901"/>
+          <a:ext cx="1470659" cy="1470659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9DE51F-8145-4BB3-8BC9-1E738D681048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4785360" y="1470858"/>
+          <a:ext cx="1203960" cy="1203960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525781</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>199453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190195</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="グループ化 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB18DE0-20B0-4FB1-9437-A221091D8B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3268981" y="3295078"/>
+          <a:ext cx="2446019" cy="466992"/>
+          <a:chOff x="3208021" y="3171253"/>
+          <a:chExt cx="2385059" cy="447942"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="図 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E61A744-3E57-4709-8798-358F2A8931C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3208021" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="図 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D5CECA-5EBD-47AB-9D57-BE18BB97ED57}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3688081" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="図 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BA511C-1EA4-43FF-B229-F7F9D34B6AEF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4168141" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="図 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295EAE60-EDDC-4B36-982E-40CD69A8BD2D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4648201" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="図 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F722A4-A6E5-4241-94E1-1A3F6C3F67FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5120641" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAB6A47-6F31-44D5-AFCF-FF6E7BFBFC19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177540" y="3169920"/>
+          <a:ext cx="2491740" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE2CF87-7B95-4BC2-8CFD-0AAC7CCE8679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4000500" y="2994660"/>
+          <a:ext cx="91440" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DE3E42-7F76-48F2-BCBA-701492F20660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734300" y="278606"/>
+          <a:ext cx="3185160" cy="1791654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>153733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="グループ化 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977227CD-C0C1-4D86-BA98-402BD052E505}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8252461" y="2296858"/>
+          <a:ext cx="2042159" cy="391097"/>
+          <a:chOff x="3208021" y="3171253"/>
+          <a:chExt cx="2385059" cy="447942"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="51" name="図 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B369AB1E-9DA8-47A8-8242-3400950604FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3208021" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="52" name="図 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CF3FF8-0CE9-414D-A05B-C79B069384EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3688081" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="53" name="図 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09220860-9168-46B3-9AB5-D6BBB02738C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4168141" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="54" name="図 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB98189-D50B-4EED-94F7-1E76A9C981B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4648201" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="55" name="図 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D62460-5DD4-47B7-9021-4BE1C5803641}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5120641" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>629317</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>172117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330804</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>111156</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="56" name="グループ化 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAE4798-DDEC-49E6-B2E5-5AD49BFC24A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9383079" y="3400805"/>
+          <a:ext cx="2082164" cy="387287"/>
+          <a:chOff x="3208021" y="3171253"/>
+          <a:chExt cx="2385059" cy="447942"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="57" name="図 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A03FFF-7EFC-4BB9-B6A0-4A537A9E1A6D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3208021" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="58" name="図 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBD7686-B7C7-4AAC-BBC1-563D151FCC76}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3688081" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="59" name="図 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746FE068-7BB9-47C2-AB62-20717714653E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4168141" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="60" name="図 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71EE19F0-C734-4045-970D-875EC0BF1715}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4648201" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="61" name="図 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9AA5A6-AD22-4674-AC18-DB6505A4453D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5120641" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>354997</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>164497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56484</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103536</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="グループ化 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33013190-E9A2-4816-A081-BA0EB1F990D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7051359" y="3393185"/>
+          <a:ext cx="2082164" cy="387287"/>
+          <a:chOff x="3208021" y="3171253"/>
+          <a:chExt cx="2385059" cy="447942"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="63" name="図 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774E5432-0ECE-47C1-A3C3-48330C352B82}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3208021" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="64" name="図 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22233CAF-38CA-44D2-9C51-6289FE0F3C65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3688081" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="65" name="図 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17350A0E-81E4-4822-9C90-DE126B2A48DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4168141" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="66" name="図 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CEA43C-83C7-4369-BF2D-54B284CAEA18}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4648201" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="67" name="図 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A40F44-7679-4182-876B-DD4B8B69A1EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5120641" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="68" name="グループ化 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDC41CA-EE9B-4C33-AA06-02ED0E5F2AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8260081" y="4439983"/>
+          <a:ext cx="2042159" cy="391097"/>
+          <a:chOff x="3208021" y="3171253"/>
+          <a:chExt cx="2385059" cy="447942"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="69" name="図 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C8276E-0DFC-45DA-9593-3831B01286FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3208021" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="70" name="図 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CCC313-55FC-4732-B759-446B09922E21}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3688081" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="71" name="図 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B30C15-CC87-4660-86AC-10595955D35F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4168141" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="72" name="図 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E2BE38-0319-4581-9F42-DC34F304F067}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4648201" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="73" name="図 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B897F8A-EC6A-4C25-AE2B-F5CEF7DB88A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5120641" y="3171253"/>
+            <a:ext cx="472439" cy="447942"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266502</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B34F40-2B49-4982-BD9D-38ACAE485C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7078980" y="2209998"/>
+          <a:ext cx="563682" cy="563682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>221178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>479862</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="図 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A04D18C-810E-4581-A8D0-C69F7EA8741A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10645140" y="3192978"/>
+          <a:ext cx="563682" cy="563682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>183078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>159822</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="図 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8FAC1C-5656-4BC7-83A0-9CF76F1D83BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10325100" y="2240478"/>
+          <a:ext cx="563682" cy="563682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>129342</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="図 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFA3D6D-6E5A-417F-A418-5A90DAB844A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6941820" y="3314898"/>
+          <a:ext cx="563682" cy="563682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182682</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3539A6B-E7AC-474B-AD86-96BE0FD0134C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10347960" y="3817818"/>
+          <a:ext cx="563682" cy="563682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>221178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457002</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4779F4A6-D580-4063-8189-1E48BAD44D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7269480" y="2735778"/>
+          <a:ext cx="563682" cy="563682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45522</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBBCC9A-BAD1-4DDC-9C6D-73D291716371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="2834838"/>
+          <a:ext cx="563682" cy="563682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434142</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B89763A-57E0-438F-A809-7C6101A4B173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7246620" y="3695898"/>
+          <a:ext cx="563682" cy="563682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43816</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>575310</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>226694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="図 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458B31F9-EA48-4470-92AE-834F4F1D9FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8761096" y="3810000"/>
+          <a:ext cx="531494" cy="531494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="28575"/>
+          <a:ext cx="12306300" cy="4248150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>草</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(AD)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>2×2×2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・燃やすよ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎炎</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>マッチを使ったらアニメーション再生</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(AT)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>時間経過で消す</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(AT)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>マッチ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>AT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>で作ります</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="76201"/>
+          <a:ext cx="2752725" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ギミック用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4FBA566-AD27-4D73-9DE7-0BEDF6DAD2FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1813560" y="693420"/>
+          <a:ext cx="1120140" cy="1120140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="28575"/>
+          <a:ext cx="12306300" cy="4248150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>蛇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(AD)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>1×1×1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>アニメーション・移動</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(AD)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>周</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>秒くらい、カエルのスピードの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>1/2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　色はこんな感じで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　柄はお任せします</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="76201"/>
+          <a:ext cx="2752725" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>エネミー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525779</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56368</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1F8CC8-B721-47E5-92AB-601F2586175E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6012179" y="1350645"/>
+          <a:ext cx="2959589" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="28575"/>
+          <a:ext cx="12306300" cy="4248150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>◎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>油がかかった状態</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(AT)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>油がかかった状態のテクスチャを別に用意する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(AD)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・全体的に油の色になる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>マテリアルの切り替えかアニメーションさせる。簡単な方に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(AT)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>・敵にかける</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・動きが止まる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・敵のところに時間みたいな</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>VI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>になるとまた動き出す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 NP-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="1 つの角を切り取った四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2351,7 +8415,39 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2367,7 +8463,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2415,7 +8511,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2430,7 +8526,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
